--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\URA\URA-word-seperator\bahnar-word-split-and-example-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A85AE-C46B-4E90-8785-5CC987D68801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81467521-5D85-4A2B-B5F7-B61169D5A9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19710" yWindow="3285" windowWidth="15015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,19 @@
     <t>C</t>
   </si>
   <si>
-    <t>vịt</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>hai</t>
   </si>
   <si>
-    <t xml:space="preserve">two </t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>một</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,24 +432,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\URA\URA-word-seperator\bahnar-word-split-and-example-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81467521-5D85-4A2B-B5F7-B61169D5A9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D1BF9A-C0A9-445D-8D48-43430FF9047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -34,16 +34,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>một</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>một nửa</t>
+  </si>
+  <si>
+    <t>a half</t>
   </si>
 </sst>
 </file>
@@ -67,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,24 +432,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\URA\URA-word-seperator\bahnar-word-split-and-example-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\bahnar-word-split-and-example-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D1BF9A-C0A9-445D-8D48-43430FF9047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565BF1F6-7F95-4D5F-ABD1-1FAB02764131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -28,16 +28,64 @@
     <t>B</t>
   </si>
   <si>
+    <t>của</t>
+  </si>
+  <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>lĩnh vực</t>
+  </si>
+  <si>
+    <t>cấp ủy</t>
+  </si>
+  <si>
+    <t>Đẩy mạnh củng cố xây dựng tổ chức</t>
+  </si>
+  <si>
+    <t>nâng cao năng lực lãnh đạo và sức chiến đấu</t>
+  </si>
+  <si>
+    <t>chuẩn bị tốt công tác nhân sự cấp ủy</t>
+  </si>
+  <si>
+    <t>Tổng kết việc thực hiện nghị quyết đại hội đảng bộ</t>
+  </si>
+  <si>
+    <t>Từ này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ñông </t>
+  </si>
+  <si>
+    <t>sônaêm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tôdrong </t>
+  </si>
+  <si>
+    <t>kôp uy</t>
+  </si>
+  <si>
+    <t>Jôraê deâh cung coâ tôjung pôm toâ chöc</t>
+  </si>
+  <si>
+    <t>poâk xuoân tôdrong pôgôl oeng jaêng tôplah</t>
+  </si>
+  <si>
+    <t>goâ ñech hôgei tôdrong nhaân sö kôp uy</t>
+  </si>
+  <si>
+    <t>Toâng keât tôdrong pôm nghi quyeât ñai hoâi ñang boâ</t>
+  </si>
+  <si>
+    <t>không tồn tại</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>một nửa</t>
-  </si>
-  <si>
-    <t>a half</t>
   </si>
 </sst>
 </file>
@@ -48,7 +96,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,23 +104,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,12 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,13 +453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -428,18 +473,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
